--- a/src/main/resources/Keyword_Driven.xlsx
+++ b/src/main/resources/Keyword_Driven.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilsonwane\AutomationTestHub\Maven_test\Java_May2025\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1006E86-0C06-4FE5-AA01-973A6199815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,82 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>KeyWord</t>
+  </si>
+  <si>
+    <t>testData</t>
+  </si>
+  <si>
+    <t>locatortype</t>
+  </si>
+  <si>
+    <t>locatorvalue</t>
+  </si>
+  <si>
+    <t>entervalidcrde</t>
+  </si>
+  <si>
+    <t>enter_UserName</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>click submit</t>
+  </si>
+  <si>
+    <t>select dd</t>
+  </si>
+  <si>
+    <t>data driven</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>success login</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s</t>
+  </si>
+  <si>
+    <t>address should be min 3 char and max 10 char, first char should be alphabatic.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +418,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF1E45E-CC42-4530-94DA-90CC9CFA1B3A}">
+  <dimension ref="D4:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="70.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>